--- a/Pivot_Table.xlsx
+++ b/Pivot_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91981\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Analyst_CN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B463CA7-8966-402A-97D7-988DE45542F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4BD463-C0AF-4F34-90C2-9D6030010EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="33" r:id="rId3"/>
-    <pivotCache cacheId="34" r:id="rId4"/>
-    <pivotCache cacheId="90" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="471">
   <si>
     <t>DoJ</t>
   </si>
@@ -1599,7 +1599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1632,13 +1632,10 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1663,7 +1660,9 @@
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
         <right/>
         <top/>
         <bottom style="thin">
@@ -1716,6 +1715,8 @@
         <name val="Tahoma"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1741,12 +1742,8 @@
         <name val="Tahoma"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
+        <left/>
         <right/>
         <top/>
         <bottom style="thin">
@@ -1928,8 +1925,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Division">
@@ -1952,7 +1949,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2006,8 +2003,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Age">
@@ -2030,7 +2027,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6148,7 +6145,102 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EE681B2-5E82-49DB-9477-6E0EB79E2F58}" name="PivotTable7" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1908E640-F07C-47C7-8D1D-DA563ACEE400}" name="Employee_Count" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Division">
+  <location ref="E1:F10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="No. Of Employee" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="17">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="No. Of Employee"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="2"/>
+  </rowHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Assessment 9 _ Dataset.xlsx!Table1">
+        <x15:activeTabTopLevelEntity name="[Table1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9EE681B2-5E82-49DB-9477-6E0EB79E2F58}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H1:N11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="15" showAll="0"/>
@@ -6250,116 +6342,46 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4409BCED-9955-463D-9366-DF17EA2F4FEF}" name="Age group in divsions" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Division">
-  <location ref="E26:F51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4409BCED-9955-463D-9366-DF17EA2F4FEF}" name="Age group in divsions" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Division">
+  <location ref="E26:F28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="15" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="9">
-        <item sd="0" x="6"/>
+        <item h="1" sd="0" x="6"/>
         <item sd="0" x="5"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="7"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
+        <item h="1" sd="0" x="0"/>
+        <item h="1" sd="0" x="7"/>
+        <item h="1" x="4"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField numFmtId="1" showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="1" showAll="0">
+    <pivotField numFmtId="1" showAll="0">
       <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField numFmtId="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="2"/>
-    <field x="5"/>
   </rowFields>
-  <rowItems count="25">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -6383,8 +6405,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F21526DE-E682-485F-A690-B8AED2A9ED65}" name="Salary and age groups" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F21526DE-E682-485F-A690-B8AED2A9ED65}" name="Salary and age groups" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A16:B72" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="15" showAll="0"/>
@@ -6658,8 +6680,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A794926-DAC9-4446-9094-AE04B169394A}" name="Age_Group" cacheId="90" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Age Group">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A794926-DAC9-4446-9094-AE04B169394A}" name="Age_Group" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Age Group">
   <location ref="F15:G20" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="15" showAll="0"/>
@@ -6779,8 +6801,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9A1BF38-5214-4480-82D4-0D613E8BED2F}" name="Salary_Details" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Division">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9A1BF38-5214-4480-82D4-0D613E8BED2F}" name="Salary_Details" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Division">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -6882,101 +6904,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1908E640-F07C-47C7-8D1D-DA563ACEE400}" name="Employee_Count" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Division">
-  <location ref="E1:F10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="No. Of Employee" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="17">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="No. Of Employee"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="2"/>
-  </rowHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Assessment 9 _ Dataset.xlsx!Table1">
-        <x15:activeTabTopLevelEntity name="[Table1]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Division" xr10:uid="{60C6D6B4-964D-46D7-AC71-B674A553AF2F}" sourceName="Division">
   <pivotTables>
@@ -6985,14 +6912,14 @@
   <data>
     <tabular pivotCacheId="969245541">
       <items count="8">
-        <i x="6" s="1"/>
+        <i x="6"/>
         <i x="5" s="1"/>
-        <i x="0" s="1"/>
-        <i x="7" s="1"/>
-        <i x="4" s="1"/>
-        <i x="1" s="1"/>
-        <i x="3" s="1"/>
-        <i x="2" s="1"/>
+        <i x="0"/>
+        <i x="7"/>
+        <i x="4"/>
+        <i x="1"/>
+        <i x="3"/>
+        <i x="2"/>
       </items>
     </tabular>
   </data>
@@ -7007,12 +6934,12 @@
   <data>
     <tabular pivotCacheId="969245541">
       <items count="6">
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
+        <i x="1"/>
+        <i x="2"/>
         <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="0" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
+        <i x="4"/>
+        <i x="0" nd="1"/>
+        <i x="5" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -7033,10 +6960,10 @@
     <tableColumn id="1" xr3:uid="{BB489E6E-3A2F-44A9-97FB-2A33B3D725DE}" name="DoJ" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{516D1830-5955-40FE-A0AE-6A5EDB8111AB}" name="Employee name" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{0BFD2436-7284-4942-B62C-096FB2AB3DCD}" name="Division" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E4C8123B-8454-4D2D-ACDF-92A2B8540D74}" name="Div" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{ACA2661A-A7AD-4B59-9173-5750B2B06244}" name="Rating" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{E4C8123B-8454-4D2D-ACDF-92A2B8540D74}" name="Div" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{ACA2661A-A7AD-4B59-9173-5750B2B06244}" name="Rating" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{D69477A8-62C7-482C-9F8C-A84BB3A9878C}" name="Age" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{47915FFF-51C8-4DFF-BD73-8647A3DD747E}" name="Salary" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{47915FFF-51C8-4DFF-BD73-8647A3DD747E}" name="Salary" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7242,8 +7169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F4BBF0-6B3B-4757-B5C0-61CCC7CEAFA4}">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7252,7 +7179,7 @@
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
@@ -7295,7 +7222,7 @@
       <c r="E2" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2">
         <v>45</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -7330,28 +7257,28 @@
       <c r="E3" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3">
         <v>53</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3">
         <v>8</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3">
         <v>13</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3">
         <v>6</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3">
         <v>8</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3">
         <v>10</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3">
         <v>45</v>
       </c>
     </row>
@@ -7359,34 +7286,34 @@
       <c r="A4" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4">
         <v>25293809</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4">
         <v>43</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4">
         <v>12</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4">
         <v>11</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4">
         <v>15</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4">
         <v>53</v>
       </c>
     </row>
@@ -7394,34 +7321,34 @@
       <c r="A5" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5">
         <v>34090052</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5">
         <v>38</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5">
         <v>7</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5">
         <v>8</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5">
         <v>7</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5">
         <v>10</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5">
         <v>11</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5">
         <v>43</v>
       </c>
     </row>
@@ -7429,34 +7356,34 @@
       <c r="A6" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6">
         <v>31210852</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6">
         <v>44</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6">
         <v>8</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6">
         <v>9</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6">
         <v>7</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6">
         <v>9</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6">
         <v>38</v>
       </c>
     </row>
@@ -7464,34 +7391,34 @@
       <c r="A7" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7">
         <v>35276294</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7">
         <v>51</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7">
         <v>10</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7">
         <v>8</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7">
         <v>12</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7">
         <v>8</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7">
         <v>44</v>
       </c>
     </row>
@@ -7499,34 +7426,34 @@
       <c r="A8" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8">
         <v>31006038</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8">
         <v>56</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8">
         <v>11</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8">
         <v>11</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8">
         <v>9</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8">
         <v>12</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8">
         <v>51</v>
       </c>
     </row>
@@ -7534,34 +7461,34 @@
       <c r="A9" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9">
         <v>33671699</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9">
         <v>42</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9">
         <v>13</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9">
         <v>10</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9">
         <v>13</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9">
         <v>14</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9">
         <v>6</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9">
         <v>56</v>
       </c>
     </row>
@@ -7569,34 +7496,34 @@
       <c r="A10" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10">
         <v>16776289</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10">
         <v>372</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10">
         <v>8</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10">
         <v>11</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10">
         <v>12</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10">
         <v>7</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10">
         <v>42</v>
       </c>
     </row>
@@ -7604,28 +7531,28 @@
       <c r="A11" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11">
         <v>13199532</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11">
         <v>73</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11">
         <v>76</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11">
         <v>76</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11">
         <v>74</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11">
         <v>73</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11">
         <v>372</v>
       </c>
     </row>
@@ -7633,7 +7560,7 @@
       <c r="A12" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12">
         <v>220524565</v>
       </c>
     </row>
@@ -7652,114 +7579,114 @@
       <c r="B16" t="s">
         <v>414</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18">
         <v>6</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19">
         <v>5</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20">
         <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26">
         <v>6</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -7770,520 +7697,382 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27">
         <v>3</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="14">
-        <v>45</v>
+        <v>24</v>
+      </c>
+      <c r="F27" s="15">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28">
         <v>14</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="14">
-        <v>53</v>
+        <v>404</v>
+      </c>
+      <c r="F28" s="15">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="E29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B30">
         <v>8</v>
       </c>
-      <c r="F29" s="14">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="B30" s="14">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B33">
         <v>8</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="14">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="B31" s="14">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B38">
         <v>7</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="14">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="B32" s="14">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B51">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="F32" s="14">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B58">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="B33" s="14">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B59">
         <v>8</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="F33" s="14">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B66">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="B34" s="14">
-        <v>1</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="F34" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="B35" s="14">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B71">
         <v>6</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="F35" s="14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="B36" s="14">
-        <v>4</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="14">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="B37" s="14">
-        <v>9</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="F37" s="14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="B38" s="14">
-        <v>7</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="F38" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="B39" s="14">
-        <v>11</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="F39" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="B40" s="14">
-        <v>14</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="F40" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="B41" s="14">
-        <v>6</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="14">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="B42" s="14">
-        <v>8</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="F42" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="B43" s="14">
-        <v>8</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="F43" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="B44" s="14">
-        <v>6</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="F44" s="14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="B45" s="14">
-        <v>9</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="F45" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="B46" s="14">
-        <v>8</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="14">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="B47" s="14">
-        <v>12</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="F47" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="B48" s="14">
-        <v>6</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="F48" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="B49" s="14">
-        <v>9</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="F49" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="B50" s="14">
-        <v>2</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="F50" s="14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="B51" s="14">
-        <v>10</v>
-      </c>
-      <c r="E51" s="7" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="F51" s="14">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="B52" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="B53" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="B54" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="B55" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="B56" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="B57" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="B58" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="B59" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="B60" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="B61" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="B62" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="B63" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="B64" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="B65" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="B66" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="B67" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="B68" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="B69" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="B70" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="B71" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="B72" s="14">
+      <c r="B72">
         <v>372</v>
       </c>
     </row>
@@ -8293,6 +8082,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{564B5C32-648F-4915-AF85-2742ED5333CF}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Pivot_Table!I2</xm:f>
+              <xm:sqref>J2</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{E6F406E2-6B17-4DC9-9BF7-0BB4AC95F90C}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -8337,22 +8142,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{564B5C32-648F-4915-AF85-2742ED5333CF}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Pivot_Table!I2</xm:f>
-              <xm:sqref>J2</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
